--- a/Report/Excel/Export/SensorWithDetails.xlsx
+++ b/Report/Excel/Export/SensorWithDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Sensor name</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>GateO</t>
+  </si>
+  <si>
+    <t>Sensor16</t>
+  </si>
+  <si>
+    <t>GateP</t>
+  </si>
+  <si>
+    <t>Sensor17</t>
+  </si>
+  <si>
+    <t>GateQ</t>
+  </si>
+  <si>
+    <t>Sensor18</t>
+  </si>
+  <si>
+    <t>GateR</t>
   </si>
 </sst>
 </file>
@@ -171,7 +189,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -199,10 +217,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>15119</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>15010</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
@@ -399,6 +417,48 @@
       </c>
       <c r="D16" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>152</v>
+      </c>
+      <c r="D17" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7147</v>
       </c>
     </row>
   </sheetData>
